--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Agrp</t>
+  </si>
+  <si>
+    <t>Sdc3</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Agrp</t>
-  </si>
-  <si>
-    <t>Sdc3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -534,25 +534,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.222768</v>
+        <v>0.5679715</v>
       </c>
       <c r="H2">
-        <v>0.668304</v>
+        <v>1.135943</v>
       </c>
       <c r="I2">
-        <v>0.1614015648347147</v>
+        <v>0.1948020679094191</v>
       </c>
       <c r="J2">
-        <v>0.1614015648347147</v>
+        <v>0.1388865047139418</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.0270995</v>
+        <v>35.18694</v>
       </c>
       <c r="N2">
-        <v>60.054199</v>
+        <v>70.37388</v>
       </c>
       <c r="O2">
-        <v>0.1342326156631674</v>
+        <v>0.1785572969025014</v>
       </c>
       <c r="P2">
-        <v>0.09453939633554115</v>
+        <v>0.1282643028201015</v>
       </c>
       <c r="Q2">
-        <v>6.689076901416</v>
+        <v>19.98517909221</v>
       </c>
       <c r="R2">
-        <v>40.134461408496</v>
+        <v>79.94071636884</v>
       </c>
       <c r="S2">
-        <v>0.02166535421989206</v>
+        <v>0.03478333067692338</v>
       </c>
       <c r="T2">
-        <v>0.01525880650708564</v>
+        <v>0.01781418069825448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.222768</v>
+        <v>0.5679715</v>
       </c>
       <c r="H3">
-        <v>0.668304</v>
+        <v>1.135943</v>
       </c>
       <c r="I3">
-        <v>0.1614015648347147</v>
+        <v>0.1948020679094191</v>
       </c>
       <c r="J3">
-        <v>0.1614015648347147</v>
+        <v>0.1388865047139418</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>16.078605</v>
       </c>
       <c r="O3">
-        <v>0.02395917067475312</v>
+        <v>0.02719713854783473</v>
       </c>
       <c r="P3">
-        <v>0.02531149588087277</v>
+        <v>0.02930506404712654</v>
       </c>
       <c r="Q3">
-        <v>1.19393289288</v>
+        <v>3.0440631332525</v>
       </c>
       <c r="R3">
-        <v>10.74539603592</v>
+        <v>18.264378799515</v>
       </c>
       <c r="S3">
-        <v>0.003867047639047161</v>
+        <v>0.005298058830337181</v>
       </c>
       <c r="T3">
-        <v>0.004085315043480301</v>
+        <v>0.004070077915923607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.222768</v>
+        <v>0.5679715</v>
       </c>
       <c r="H4">
-        <v>0.668304</v>
+        <v>1.135943</v>
       </c>
       <c r="I4">
-        <v>0.1614015648347147</v>
+        <v>0.1948020679094191</v>
       </c>
       <c r="J4">
-        <v>0.1614015648347147</v>
+        <v>0.1388865047139418</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.82578633333333</v>
+        <v>70.59161999999999</v>
       </c>
       <c r="N4">
-        <v>191.477359</v>
+        <v>211.77486</v>
       </c>
       <c r="O4">
-        <v>0.2853256687773582</v>
+        <v>0.3582195226742806</v>
       </c>
       <c r="P4">
-        <v>0.3014302785352894</v>
+        <v>0.3859834752997077</v>
       </c>
       <c r="Q4">
-        <v>14.218342769904</v>
+        <v>40.09402829882999</v>
       </c>
       <c r="R4">
-        <v>127.965084929136</v>
+        <v>240.56416979298</v>
       </c>
       <c r="S4">
-        <v>0.04605200942817711</v>
+        <v>0.06978190378247492</v>
       </c>
       <c r="T4">
-        <v>0.04865131864415963</v>
+        <v>0.05360789576171649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.222768</v>
+        <v>0.5679715</v>
       </c>
       <c r="H5">
-        <v>0.668304</v>
+        <v>1.135943</v>
       </c>
       <c r="I5">
-        <v>0.1614015648347147</v>
+        <v>0.1948020679094191</v>
       </c>
       <c r="J5">
-        <v>0.1614015648347147</v>
+        <v>0.1388865047139418</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.827090500000001</v>
+        <v>7.337415</v>
       </c>
       <c r="N5">
-        <v>11.654181</v>
+        <v>14.67483</v>
       </c>
       <c r="O5">
-        <v>0.0260493225301696</v>
+        <v>0.03723395636710288</v>
       </c>
       <c r="P5">
-        <v>0.018346414653289</v>
+        <v>0.0267465263952124</v>
       </c>
       <c r="Q5">
-        <v>1.298089296504</v>
+        <v>4.1674426036725</v>
       </c>
       <c r="R5">
-        <v>7.788535779024001</v>
+        <v>16.66977041469</v>
       </c>
       <c r="S5">
-        <v>0.004204401419253562</v>
+        <v>0.007253251696760724</v>
       </c>
       <c r="T5">
-        <v>0.002961140034147384</v>
+        <v>0.003714731564270236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.222768</v>
+        <v>0.5679715</v>
       </c>
       <c r="H6">
-        <v>0.668304</v>
+        <v>1.135943</v>
       </c>
       <c r="I6">
-        <v>0.1614015648347147</v>
+        <v>0.1948020679094191</v>
       </c>
       <c r="J6">
-        <v>0.1614015648347147</v>
+        <v>0.1388865047139418</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.286359</v>
+        <v>15.36873766666667</v>
       </c>
       <c r="N6">
-        <v>75.859077</v>
+        <v>46.106213</v>
       </c>
       <c r="O6">
-        <v>0.1130396930002472</v>
+        <v>0.07798917025929666</v>
       </c>
       <c r="P6">
-        <v>0.1194199817093778</v>
+        <v>0.0840337532351506</v>
       </c>
       <c r="Q6">
-        <v>5.632991621712</v>
+        <v>8.729004985643165</v>
       </c>
       <c r="R6">
-        <v>50.696924595408</v>
+        <v>52.37402991385899</v>
       </c>
       <c r="S6">
-        <v>0.01824478333867564</v>
+        <v>0.01519245164105076</v>
       </c>
       <c r="T6">
-        <v>0.01927457192042659</v>
+        <v>0.01167115426482396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.222768</v>
+        <v>0.5679715</v>
       </c>
       <c r="H7">
-        <v>0.668304</v>
+        <v>1.135943</v>
       </c>
       <c r="I7">
-        <v>0.1614015648347147</v>
+        <v>0.1948020679094191</v>
       </c>
       <c r="J7">
-        <v>0.1614015648347147</v>
+        <v>0.1388865047139418</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>93.36864199999998</v>
+        <v>63.21821133333334</v>
       </c>
       <c r="N7">
-        <v>280.105926</v>
+        <v>189.654634</v>
       </c>
       <c r="O7">
-        <v>0.4173935293543045</v>
+        <v>0.3208029152489838</v>
       </c>
       <c r="P7">
-        <v>0.4409524328856299</v>
+        <v>0.3456668782027013</v>
       </c>
       <c r="Q7">
-        <v>20.799545641056</v>
+        <v>35.90614231831033</v>
       </c>
       <c r="R7">
-        <v>187.195910769504</v>
+        <v>215.436853909862</v>
       </c>
       <c r="S7">
-        <v>0.06736796878966916</v>
+        <v>0.06249307128187217</v>
       </c>
       <c r="T7">
-        <v>0.07117041268541517</v>
+        <v>0.04800846450895302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.052073</v>
+        <v>2.235202</v>
       </c>
       <c r="H8">
-        <v>0.156219</v>
+        <v>6.705606</v>
       </c>
       <c r="I8">
-        <v>0.03772832581716448</v>
+        <v>0.7666264448044829</v>
       </c>
       <c r="J8">
-        <v>0.03772832581716449</v>
+        <v>0.8198634784745682</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.0270995</v>
+        <v>35.18694</v>
       </c>
       <c r="N8">
-        <v>60.054199</v>
+        <v>70.37388</v>
       </c>
       <c r="O8">
-        <v>0.1342326156631674</v>
+        <v>0.1785572969025014</v>
       </c>
       <c r="P8">
-        <v>0.09453939633554115</v>
+        <v>0.1282643028201015</v>
       </c>
       <c r="Q8">
-        <v>1.5636011522635</v>
+        <v>78.64991866187999</v>
       </c>
       <c r="R8">
-        <v>9.381606913580999</v>
+        <v>471.89951197128</v>
       </c>
       <c r="S8">
-        <v>0.005064371859030197</v>
+        <v>0.1368867457182631</v>
       </c>
       <c r="T8">
-        <v>0.003566813147505343</v>
+        <v>0.1051592174742038</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.052073</v>
+        <v>2.235202</v>
       </c>
       <c r="H9">
-        <v>0.156219</v>
+        <v>6.705606</v>
       </c>
       <c r="I9">
-        <v>0.03772832581716448</v>
+        <v>0.7666264448044829</v>
       </c>
       <c r="J9">
-        <v>0.03772832581716449</v>
+        <v>0.8198634784745682</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>16.078605</v>
       </c>
       <c r="O9">
-        <v>0.02395917067475312</v>
+        <v>0.02719713854783473</v>
       </c>
       <c r="P9">
-        <v>0.02531149588087277</v>
+        <v>0.02930506404712654</v>
       </c>
       <c r="Q9">
-        <v>0.279087066055</v>
+        <v>11.97964335107</v>
       </c>
       <c r="R9">
-        <v>2.511783594495</v>
+        <v>107.81679015963</v>
       </c>
       <c r="S9">
-        <v>0.0009039393975261384</v>
+        <v>0.0208500456337815</v>
       </c>
       <c r="T9">
-        <v>0.0009549603635133848</v>
+        <v>0.02402615174659718</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.052073</v>
+        <v>2.235202</v>
       </c>
       <c r="H10">
-        <v>0.156219</v>
+        <v>6.705606</v>
       </c>
       <c r="I10">
-        <v>0.03772832581716448</v>
+        <v>0.7666264448044829</v>
       </c>
       <c r="J10">
-        <v>0.03772832581716449</v>
+        <v>0.8198634784745682</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.82578633333333</v>
+        <v>70.59161999999999</v>
       </c>
       <c r="N10">
-        <v>191.477359</v>
+        <v>211.77486</v>
       </c>
       <c r="O10">
-        <v>0.2853256687773582</v>
+        <v>0.3582195226742806</v>
       </c>
       <c r="P10">
-        <v>0.3014302785352894</v>
+        <v>0.3859834752997077</v>
       </c>
       <c r="Q10">
-        <v>3.323600171735667</v>
+        <v>157.78653020724</v>
       </c>
       <c r="R10">
-        <v>29.912401545621</v>
+        <v>1420.07877186516</v>
       </c>
       <c r="S10">
-        <v>0.01076485979563253</v>
+        <v>0.2746205591273426</v>
       </c>
       <c r="T10">
-        <v>0.01137245975973804</v>
+        <v>0.316453754692921</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.052073</v>
+        <v>2.235202</v>
       </c>
       <c r="H11">
-        <v>0.156219</v>
+        <v>6.705606</v>
       </c>
       <c r="I11">
-        <v>0.03772832581716448</v>
+        <v>0.7666264448044829</v>
       </c>
       <c r="J11">
-        <v>0.03772832581716449</v>
+        <v>0.8198634784745682</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.827090500000001</v>
+        <v>7.337415</v>
       </c>
       <c r="N11">
-        <v>11.654181</v>
+        <v>14.67483</v>
       </c>
       <c r="O11">
-        <v>0.0260493225301696</v>
+        <v>0.03723395636710288</v>
       </c>
       <c r="P11">
-        <v>0.018346414653289</v>
+        <v>0.0267465263952124</v>
       </c>
       <c r="Q11">
-        <v>0.3034340836065</v>
+        <v>16.40060468283</v>
       </c>
       <c r="R11">
-        <v>1.820604501639</v>
+        <v>98.40362809697999</v>
       </c>
       <c r="S11">
-        <v>0.000982797327734642</v>
+        <v>0.02854453559571732</v>
       </c>
       <c r="T11">
-        <v>0.0006921795096160882</v>
+        <v>0.02192850016749069</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.052073</v>
+        <v>2.235202</v>
       </c>
       <c r="H12">
-        <v>0.156219</v>
+        <v>6.705606</v>
       </c>
       <c r="I12">
-        <v>0.03772832581716448</v>
+        <v>0.7666264448044829</v>
       </c>
       <c r="J12">
-        <v>0.03772832581716449</v>
+        <v>0.8198634784745682</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.286359</v>
+        <v>15.36873766666667</v>
       </c>
       <c r="N12">
-        <v>75.859077</v>
+        <v>46.106213</v>
       </c>
       <c r="O12">
-        <v>0.1130396930002472</v>
+        <v>0.07798917025929666</v>
       </c>
       <c r="P12">
-        <v>0.1194199817093778</v>
+        <v>0.0840337532351506</v>
       </c>
       <c r="Q12">
-        <v>1.316736572207</v>
+        <v>34.35223317000866</v>
       </c>
       <c r="R12">
-        <v>11.850629149863</v>
+        <v>309.170098530078</v>
       </c>
       <c r="S12">
-        <v>0.004264798367785573</v>
+        <v>0.05978856032913612</v>
       </c>
       <c r="T12">
-        <v>0.00450551597901123</v>
+        <v>0.06889620523664407</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.052073</v>
+        <v>2.235202</v>
       </c>
       <c r="H13">
-        <v>0.156219</v>
+        <v>6.705606</v>
       </c>
       <c r="I13">
-        <v>0.03772832581716448</v>
+        <v>0.7666264448044829</v>
       </c>
       <c r="J13">
-        <v>0.03772832581716449</v>
+        <v>0.8198634784745682</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>93.36864199999998</v>
+        <v>63.21821133333334</v>
       </c>
       <c r="N13">
-        <v>280.105926</v>
+        <v>189.654634</v>
       </c>
       <c r="O13">
-        <v>0.4173935293543045</v>
+        <v>0.3208029152489838</v>
       </c>
       <c r="P13">
-        <v>0.4409524328856299</v>
+        <v>0.3456668782027013</v>
       </c>
       <c r="Q13">
-        <v>4.861985294865999</v>
+        <v>141.3054724086893</v>
       </c>
       <c r="R13">
-        <v>43.75786765379399</v>
+        <v>1271.749251678204</v>
       </c>
       <c r="S13">
-        <v>0.0157475590694554</v>
+        <v>0.2459359984002423</v>
       </c>
       <c r="T13">
-        <v>0.0166363970577804</v>
+        <v>0.2833996491567116</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.105368666666667</v>
+        <v>0.1124603333333333</v>
       </c>
       <c r="H14">
-        <v>3.316106</v>
+        <v>0.337381</v>
       </c>
       <c r="I14">
-        <v>0.8008701093481208</v>
+        <v>0.03857148728609783</v>
       </c>
       <c r="J14">
-        <v>0.8008701093481208</v>
+        <v>0.04125001681149001</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.0270995</v>
+        <v>35.18694</v>
       </c>
       <c r="N14">
-        <v>60.054199</v>
+        <v>70.37388</v>
       </c>
       <c r="O14">
-        <v>0.1342326156631674</v>
+        <v>0.1785572969025014</v>
       </c>
       <c r="P14">
-        <v>0.09453939633554115</v>
+        <v>0.1282643028201015</v>
       </c>
       <c r="Q14">
-        <v>33.19101493818234</v>
+        <v>3.95713500138</v>
       </c>
       <c r="R14">
-        <v>199.146089629094</v>
+        <v>23.74281000828</v>
       </c>
       <c r="S14">
-        <v>0.1075028895842452</v>
+        <v>0.006887220507314826</v>
       </c>
       <c r="T14">
-        <v>0.07571377668095017</v>
+        <v>0.005290904647643232</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.105368666666667</v>
+        <v>0.1124603333333333</v>
       </c>
       <c r="H15">
-        <v>3.316106</v>
+        <v>0.337381</v>
       </c>
       <c r="I15">
-        <v>0.8008701093481208</v>
+        <v>0.03857148728609783</v>
       </c>
       <c r="J15">
-        <v>0.8008701093481208</v>
+        <v>0.04125001681149001</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>16.078605</v>
       </c>
       <c r="O15">
-        <v>0.02395917067475312</v>
+        <v>0.02719713854783473</v>
       </c>
       <c r="P15">
-        <v>0.02531149588087277</v>
+        <v>0.02930506404712654</v>
       </c>
       <c r="Q15">
-        <v>5.924262056903335</v>
+        <v>0.6027350926116667</v>
       </c>
       <c r="R15">
-        <v>53.31835851213</v>
+        <v>5.424615833504999</v>
       </c>
       <c r="S15">
-        <v>0.01918818363817982</v>
+        <v>0.001049034083716048</v>
       </c>
       <c r="T15">
-        <v>0.02027122047387908</v>
+        <v>0.001208834384605762</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.105368666666667</v>
+        <v>0.1124603333333333</v>
       </c>
       <c r="H16">
-        <v>3.316106</v>
+        <v>0.337381</v>
       </c>
       <c r="I16">
-        <v>0.8008701093481208</v>
+        <v>0.03857148728609783</v>
       </c>
       <c r="J16">
-        <v>0.8008701093481208</v>
+        <v>0.04125001681149001</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.82578633333333</v>
+        <v>70.59161999999999</v>
       </c>
       <c r="N16">
-        <v>191.477359</v>
+        <v>211.77486</v>
       </c>
       <c r="O16">
-        <v>0.2853256687773582</v>
+        <v>0.3582195226742806</v>
       </c>
       <c r="P16">
-        <v>0.3014302785352894</v>
+        <v>0.3859834752997077</v>
       </c>
       <c r="Q16">
-        <v>70.55102433822823</v>
+        <v>7.938757115739999</v>
       </c>
       <c r="R16">
-        <v>634.9592190440541</v>
+        <v>71.44881404166</v>
       </c>
       <c r="S16">
-        <v>0.2285087995535486</v>
+        <v>0.01381705976446305</v>
       </c>
       <c r="T16">
-        <v>0.2414065001313917</v>
+        <v>0.01592182484507029</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.105368666666667</v>
+        <v>0.1124603333333333</v>
       </c>
       <c r="H17">
-        <v>3.316106</v>
+        <v>0.337381</v>
       </c>
       <c r="I17">
-        <v>0.8008701093481208</v>
+        <v>0.03857148728609783</v>
       </c>
       <c r="J17">
-        <v>0.8008701093481208</v>
+        <v>0.04125001681149001</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.827090500000001</v>
+        <v>7.337415</v>
       </c>
       <c r="N17">
-        <v>11.654181</v>
+        <v>14.67483</v>
       </c>
       <c r="O17">
-        <v>0.0260493225301696</v>
+        <v>0.03723395636710288</v>
       </c>
       <c r="P17">
-        <v>0.018346414653289</v>
+        <v>0.0267465263952124</v>
       </c>
       <c r="Q17">
-        <v>6.441083256531002</v>
+        <v>0.825168136705</v>
       </c>
       <c r="R17">
-        <v>38.64649953918601</v>
+        <v>4.95100882023</v>
       </c>
       <c r="S17">
-        <v>0.02086212378318139</v>
+        <v>0.00143616907462483</v>
       </c>
       <c r="T17">
-        <v>0.01469309510952552</v>
+        <v>0.001103294663451473</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.105368666666667</v>
+        <v>0.1124603333333333</v>
       </c>
       <c r="H18">
-        <v>3.316106</v>
+        <v>0.337381</v>
       </c>
       <c r="I18">
-        <v>0.8008701093481208</v>
+        <v>0.03857148728609783</v>
       </c>
       <c r="J18">
-        <v>0.8008701093481208</v>
+        <v>0.04125001681149001</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.286359</v>
+        <v>15.36873766666667</v>
       </c>
       <c r="N18">
-        <v>75.859077</v>
+        <v>46.106213</v>
       </c>
       <c r="O18">
-        <v>0.1130396930002472</v>
+        <v>0.07798917025929666</v>
       </c>
       <c r="P18">
-        <v>0.1194199817093778</v>
+        <v>0.0840337532351506</v>
       </c>
       <c r="Q18">
-        <v>27.95074893268467</v>
+        <v>1.728373360905889</v>
       </c>
       <c r="R18">
-        <v>251.556740394162</v>
+        <v>15.555360248153</v>
       </c>
       <c r="S18">
-        <v>0.09053011129378595</v>
+        <v>0.00300815828910978</v>
       </c>
       <c r="T18">
-        <v>0.09563989380993998</v>
+        <v>0.003466393733682566</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.105368666666667</v>
+        <v>0.1124603333333333</v>
       </c>
       <c r="H19">
-        <v>3.316106</v>
+        <v>0.337381</v>
       </c>
       <c r="I19">
-        <v>0.8008701093481208</v>
+        <v>0.03857148728609783</v>
       </c>
       <c r="J19">
-        <v>0.8008701093481208</v>
+        <v>0.04125001681149001</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>93.36864199999998</v>
+        <v>63.21821133333334</v>
       </c>
       <c r="N19">
-        <v>280.105926</v>
+        <v>189.654634</v>
       </c>
       <c r="O19">
-        <v>0.4173935293543045</v>
+        <v>0.3208029152489838</v>
       </c>
       <c r="P19">
-        <v>0.4409524328856299</v>
+        <v>0.3456668782027013</v>
       </c>
       <c r="Q19">
-        <v>103.2067713160173</v>
+        <v>7.109541119283778</v>
       </c>
       <c r="R19">
-        <v>928.8609418441559</v>
+        <v>63.985870073554</v>
       </c>
       <c r="S19">
-        <v>0.3342780014951799</v>
+        <v>0.0123738455668693</v>
       </c>
       <c r="T19">
-        <v>0.3531456231424343</v>
+        <v>0.0142587645370367</v>
       </c>
     </row>
   </sheetData>
